--- a/個人製作.xlsx
+++ b/個人製作.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryupo\Documents\Wiz\Java 個人製作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryupo\Documents\Wiz\システム開発Ⅰ\22310059-mashikoryunosuke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7FAFBD-43A3-45BF-940A-236826E10A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB2EED-C799-4212-A31D-88DC0C0BF3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>企画背景（なんでそれを作ろうと思ったか）</t>
     <rPh sb="0" eb="2">
@@ -567,7 +567,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・頭の回転が速いと、しりとりって終わらないよね、終わらせたくない？
+    <t>普段何気なく行うしりとりに刺激や緊張感を得ることができる</t>
+    <rPh sb="0" eb="2">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナニゲ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キンチョウカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19歳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両親、妹</t>
+    <rPh sb="3" eb="4">
+      <t>イモウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暇つぶしゲーム</t>
+    <rPh sb="0" eb="1">
+      <t>ヒマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮城県</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤギケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム、動画鑑賞</t>
+    <rPh sb="4" eb="8">
+      <t>ドウガカンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的に家で過ごす</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国家資格取得</t>
+    <rPh sb="0" eb="2">
+      <t>コッカ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シカクシュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飽き性</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片桐圭介</t>
+    <rPh sb="0" eb="2">
+      <t>カタギリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22310059【増子　龍之介】</t>
+    <rPh sb="9" eb="11">
+      <t>マシコ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>リュウノスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定表</t>
+    <rPh sb="0" eb="3">
+      <t>ヨテイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・頭の回転が速いと、しりとりは終わらない、終わらせたい
 ・若干のタイピング練習にもなる</t>
     <rPh sb="1" eb="2">
       <t>アタマ</t>
@@ -578,142 +710,159 @@
     <rPh sb="6" eb="7">
       <t>ハヤ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="15" eb="16">
       <t>オ</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="21" eb="22">
       <t>オ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="29" eb="31">
       <t>ジャッカン</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="37" eb="39">
       <t>レンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>普段何気なく行うしりとりに刺激や緊張感を得ることができる</t>
+    <t>今後の予定を書き込んで確認できる、書き込んでからの経過日数がわかる</t>
     <rPh sb="0" eb="2">
-      <t>フダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナニゲ</t>
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シゲキ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>キンチョウカン</t>
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ケイカニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定を忘れにくい、いつ何があったのか確認しやすい</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分の予定を忘れることが多いから
+・いつの出来事かわかりやすくしたいから</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物忘れが多い人でもいつ何があるのか、いつ何があったのかを認識することができる</t>
+    <rPh sb="0" eb="2">
+      <t>モノワス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
     </rPh>
     <rPh sb="20" eb="21">
-      <t>エ</t>
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>男性</t>
+    <t>スタート画面の作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部データ（お題、タイマー）の作成</t>
     <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>19歳</t>
+    <t>入力画面の作成</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学生</t>
+    <t>一覧の作成</t>
     <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>両親、妹</t>
-    <rPh sb="3" eb="4">
-      <t>イモウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>暇つぶしゲーム</t>
+    <t>顔と入力画面の作成</t>
     <rPh sb="0" eb="1">
-      <t>ヒマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮城県</t>
-    <rPh sb="0" eb="3">
-      <t>ミヤギケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム、動画鑑賞</t>
-    <rPh sb="4" eb="8">
-      <t>ドウガカンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本的に家で過ごす</t>
-    <rPh sb="0" eb="3">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国家資格取得</t>
-    <rPh sb="0" eb="2">
-      <t>コッカ</t>
+      <t>カオ</t>
     </rPh>
     <rPh sb="2" eb="6">
-      <t>シカクシュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飽き性</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>片桐圭介</t>
-    <rPh sb="0" eb="2">
-      <t>カタギリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>22310059【増子　龍之介】</t>
-    <rPh sb="9" eb="11">
-      <t>マシコ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>リュウノスケ</t>
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1009,21 +1158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1074,6 +1208,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -2246,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549976A-85CF-469E-8886-B0D7837209D6}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2256,120 +2405,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="A1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -2430,118 +2579,118 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -2602,118 +2751,118 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -2774,118 +2923,118 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="A19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -2918,276 +3067,282 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="27">
         <v>2</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="27">
         <v>3</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="27">
         <v>5</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="27">
         <v>6</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="27">
         <v>7</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="27">
         <v>8</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -3250,207 +3405,224 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="15" t="s">
+      <c r="A35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="25"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="28"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="28"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="23"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="28"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="23"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="28"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="28"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="31"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z4"/>
+    <mergeCell ref="A7:Z10"/>
+    <mergeCell ref="A13:Z16"/>
+    <mergeCell ref="A19:Z22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:Z24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:Z25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:Z27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:Z29"/>
     <mergeCell ref="A35:M41"/>
     <mergeCell ref="N35:Z41"/>
     <mergeCell ref="A30:C30"/>
@@ -3459,27 +3631,11 @@
     <mergeCell ref="D31:Z31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:Z32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:Z24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:Z25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:Z26"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:Z4"/>
-    <mergeCell ref="A7:Z10"/>
-    <mergeCell ref="A13:Z16"/>
-    <mergeCell ref="A19:Z22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3487,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BB8707-FF96-4975-897E-B19CE03AE220}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4:AE17"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3497,118 +3653,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -3669,116 +3827,118 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="A7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -3839,116 +3999,118 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="A13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -4009,116 +4171,118 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="A19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -4151,276 +4315,280 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="27">
         <v>2</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="27">
         <v>3</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="27">
         <v>5</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="27">
         <v>6</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="27">
         <v>7</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="27">
         <v>8</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -4483,230 +4651,232 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="15" t="s">
+      <c r="A35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="25"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="28"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="28"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="23"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="28"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="23"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="28"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="28"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="31"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:Z24"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z4"/>
+    <mergeCell ref="A7:Z10"/>
+    <mergeCell ref="A13:Z16"/>
+    <mergeCell ref="A19:Z22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:Z25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:Z27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:Z30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="D31:Z31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:Z32"/>
     <mergeCell ref="A35:M41"/>
     <mergeCell ref="N35:Z41"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:Z30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:Z25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:Z26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:Z4"/>
-    <mergeCell ref="A7:Z10"/>
-    <mergeCell ref="A13:Z16"/>
-    <mergeCell ref="A19:Z22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:Z24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4718,7 +4888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C334A-104D-44A2-89B3-1072FF03BC1C}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -4729,98 +4899,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
     </row>
     <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4829,118 +4999,118 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -4949,118 +5119,118 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -5069,118 +5239,118 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -5188,290 +5358,290 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="27">
         <v>2</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="27">
         <v>3</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="27">
         <v>5</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="27">
         <v>6</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="27">
         <v>7</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="27">
         <v>8</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -5510,226 +5680,208 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="15" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="25"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="28"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="28"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="23"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="28"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="23"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="28"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="28"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="31"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="26"/>
     </row>
     <row r="42" spans="1:26" ht="9.65" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:Z31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:Z32"/>
-    <mergeCell ref="A35:M41"/>
-    <mergeCell ref="N35:Z41"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:Z30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:Z25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:Z26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:Z27"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:Z24"/>
     <mergeCell ref="W1:Z1"/>
@@ -5737,6 +5889,24 @@
     <mergeCell ref="A7:Z10"/>
     <mergeCell ref="A13:Z16"/>
     <mergeCell ref="A19:Z22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:Z25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:Z27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:Z30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:Z31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:Z32"/>
+    <mergeCell ref="A35:M41"/>
+    <mergeCell ref="N35:Z41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.55000000000000004" bottom="0.55000000000000004" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -5749,7 +5919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D60B20-F156-43FF-9B06-2611BF62DFDD}">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5884,13 +6054,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5898,13 +6068,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,13 +6082,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5926,13 +6096,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5940,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -5952,13 +6122,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5966,13 +6136,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5988,6 +6158,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -6143,25 +6322,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC27DCD-7310-4DD2-A911-980BEC263333}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C234AA-FB2C-46C2-97C1-B301B0DD0005}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B223FBE8-2DB6-425F-8345-6EA293EC9BB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6177,12 +6362,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C234AA-FB2C-46C2-97C1-B301B0DD0005}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>